--- a/非受控文档/过程文档/图/软件系列教学辅助网站需求工程计划wbs表.xlsx
+++ b/非受控文档/过程文档/图/软件系列教学辅助网站需求工程计划wbs表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRD2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRD2018\非受控文档\过程文档\图\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8453F41A-0CF9-4513-B4F9-9DCCC95107CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FFD3F0-0CDF-4CC5-B177-18CAAA031E2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{C46EC1E7-5A6A-454A-AE87-D83B57A84729}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9010" xr2:uid="{C46EC1E7-5A6A-454A-AE87-D83B57A84729}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="186">
   <si>
     <t>WBS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -702,6 +702,78 @@
   </si>
   <si>
     <t xml:space="preserve">      wbs图+obs图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心队伍建立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品代表文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定使用实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑巧雁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈遵义，陈妍蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典和er图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈遵义，宋翼虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例图，DM图，顺序图等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级打分表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求规格说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步SRS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑巧雁，张琪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1097,18 +1169,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430E1C2E-B359-44F7-8239-11956ED4B405}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="37.4140625" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1133,7 +1205,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1141,7 +1213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1158,7 +1230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1175,7 +1247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1192,7 +1264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1209,7 +1281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1226,7 +1298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1243,7 +1315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1.2</v>
       </c>
@@ -1251,7 +1323,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
@@ -1268,7 +1340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1285,7 +1357,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1302,7 +1374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1319,7 +1391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1336,7 +1408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1353,7 +1425,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1.3</v>
       </c>
@@ -1361,7 +1433,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -1369,7 +1441,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -1386,7 +1458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1400,7 +1472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1417,7 +1489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1434,18 +1506,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>69</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
       </c>
+      <c r="C23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" t="s">
+        <v>168</v>
+      </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -1453,7 +1531,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1461,7 +1539,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1469,7 +1547,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1477,7 +1555,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -1485,7 +1563,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -1493,7 +1571,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>83</v>
       </c>
@@ -1501,55 +1579,106 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>85</v>
       </c>
       <c r="B31" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>87</v>
       </c>
       <c r="B32" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>89</v>
       </c>
       <c r="B33" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>91</v>
       </c>
       <c r="B34" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>93</v>
       </c>
       <c r="B35" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>95</v>
       </c>
       <c r="B36" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -1557,7 +1686,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
@@ -1565,15 +1694,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>101</v>
       </c>
       <c r="B39" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -1581,7 +1719,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>105</v>
       </c>
@@ -1589,7 +1727,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>107</v>
       </c>
@@ -1597,7 +1735,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -1605,7 +1743,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>111</v>
       </c>
@@ -1613,7 +1751,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -1621,7 +1759,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -1629,7 +1767,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>117</v>
       </c>
@@ -1637,7 +1775,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>119</v>
       </c>
@@ -1645,7 +1783,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>121</v>
       </c>
@@ -1653,7 +1791,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>123</v>
       </c>
@@ -1661,7 +1799,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>125</v>
       </c>
@@ -1669,7 +1807,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>127</v>
       </c>
@@ -1677,7 +1815,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>129</v>
       </c>
@@ -1685,7 +1823,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -1693,7 +1831,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>133</v>
       </c>
@@ -1701,7 +1839,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>135</v>
       </c>
@@ -1709,7 +1847,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>137</v>
       </c>
@@ -1717,7 +1855,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>139</v>
       </c>
@@ -1725,7 +1863,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>1.4</v>
       </c>
@@ -1733,7 +1871,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>141</v>
       </c>
@@ -1741,7 +1879,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>152</v>
       </c>
@@ -1749,7 +1887,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>154</v>
       </c>
@@ -1757,7 +1895,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>156</v>
       </c>
@@ -1765,7 +1903,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>158</v>
       </c>
@@ -1773,7 +1911,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>1.5</v>
       </c>
@@ -1781,7 +1919,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>145</v>
       </c>
@@ -1789,7 +1927,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>147</v>
       </c>
@@ -1797,7 +1935,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -1805,7 +1943,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>163</v>
       </c>
@@ -1813,7 +1951,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>165</v>
       </c>

--- a/非受控文档/过程文档/图/软件系列教学辅助网站需求工程计划wbs表.xlsx
+++ b/非受控文档/过程文档/图/软件系列教学辅助网站需求工程计划wbs表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRD2018\非受控文档\过程文档\图\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FFD3F0-0CDF-4CC5-B177-18CAAA031E2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35D7508-5F15-4E3A-A3D1-4B4CB3DCD142}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9010" xr2:uid="{C46EC1E7-5A6A-454A-AE87-D83B57A84729}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="191">
   <si>
     <t>WBS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -774,6 +774,26 @@
   </si>
   <si>
     <t>郑巧雁，张琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBS表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求可行性打分表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈妍蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QFD打分表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑巧雁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1169,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430E1C2E-B359-44F7-8239-11956ED4B405}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1468,6 +1488,9 @@
       <c r="C20" t="s">
         <v>42</v>
       </c>
+      <c r="D20" t="s">
+        <v>186</v>
+      </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
@@ -1623,8 +1646,11 @@
       <c r="C33" t="s">
         <v>181</v>
       </c>
+      <c r="D33" t="s">
+        <v>187</v>
+      </c>
       <c r="E33" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1685,6 +1711,12 @@
       <c r="B37" t="s">
         <v>98</v>
       </c>
+      <c r="D37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
@@ -1741,6 +1773,9 @@
       </c>
       <c r="B43" t="s">
         <v>110</v>
+      </c>
+      <c r="E43" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/非受控文档/过程文档/图/软件系列教学辅助网站需求工程计划wbs表.xlsx
+++ b/非受控文档/过程文档/图/软件系列教学辅助网站需求工程计划wbs表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRD2018\非受控文档\过程文档\图\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35D7508-5F15-4E3A-A3D1-4B4CB3DCD142}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EAD116-2001-42B5-9C30-A1A57D77CD00}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9010" xr2:uid="{C46EC1E7-5A6A-454A-AE87-D83B57A84729}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="197">
   <si>
     <t>WBS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,6 +794,30 @@
   </si>
   <si>
     <t>郑巧雁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        需求工程计划v0.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1187,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430E1C2E-B359-44F7-8239-11956ED4B405}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1430,7 +1454,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -1445,85 +1469,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>60</v>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
@@ -1531,16 +1519,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -1548,449 +1536,508 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" t="s">
-        <v>173</v>
-      </c>
-      <c r="E32" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" t="s">
-        <v>181</v>
-      </c>
-      <c r="D33" t="s">
-        <v>187</v>
-      </c>
-      <c r="E33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E34" t="s">
-        <v>172</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E35" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>181</v>
       </c>
       <c r="D37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E37" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>100</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E39" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" t="s">
-        <v>108</v>
+        <v>98</v>
+      </c>
+      <c r="D41" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>102</v>
+      </c>
+      <c r="C43" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" t="s">
+        <v>184</v>
       </c>
       <c r="E43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>112</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
+      </c>
+      <c r="E47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" t="s">
-        <v>130</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>156</v>
-      </c>
-      <c r="B63" t="s">
-        <v>157</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>160</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>163</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="B68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>166</v>
       </c>
     </row>
